--- a/output/concentrations/ds.5p.ser/data3_res.xlsx
+++ b/output/concentrations/ds.5p.ser/data3_res.xlsx
@@ -28,7 +28,7 @@
     <t>L</t>
   </si>
   <si>
-    <t>log10.K.</t>
+    <t>lg_k</t>
   </si>
   <si>
     <t>eq</t>
